--- a/distributedscheduling/resultados/novo/hihi_32_1024_100_NewMetrics.xlsx
+++ b/distributedscheduling/resultados/novo/hihi_32_1024_100_NewMetrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Estudos\TCC\git\distributedscheduling\resultados\novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D99CD19-D1AB-403B-8639-46F2E7983DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67344E06-732F-4A30-AA5F-B2E317462275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4620" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -7172,8 +7172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7844,7 +7844,7 @@
         <v>3.9280000000000002E-2</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:D51" si="1">-((B43-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f>-((B43-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>1</v>
       </c>
       <c r="E43" s="6">
@@ -7863,11 +7863,11 @@
         <v>3.9660000000000001E-2</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="1"/>
+        <f>-((B44-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>0.98802761700761588</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" ref="E44:E51" si="2">(B44/B$43)</f>
+        <f>(B44/B$43)</f>
         <v>1.0181424314813627</v>
       </c>
     </row>
@@ -7882,11 +7882,11 @@
         <v>4.1820000000000003E-2</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="1"/>
+        <f>-((B45-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>0.98386938121779766</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="2"/>
+        <f>(B45/B$43)</f>
         <v>1.0244436421883802</v>
       </c>
     </row>
@@ -7901,11 +7901,11 @@
         <v>4.079E-2</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="1"/>
+        <f>-((B46-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>0.97980322177725809</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="2"/>
+        <f>(B46/B$43)</f>
         <v>1.0306053243772322</v>
       </c>
     </row>
@@ -7920,11 +7920,11 @@
         <v>3.9280000000000002E-2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="1"/>
+        <f>-((B47-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>0.97276470279661675</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="2"/>
+        <f>(B47/B$43)</f>
         <v>1.0412711916834971</v>
       </c>
     </row>
@@ -7939,11 +7939,11 @@
         <v>2.6110000000000001E-2</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="1"/>
+        <f>-((B48-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>0.86565760066551212</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="2"/>
+        <f>(B48/B$43)</f>
         <v>1.203576662767823</v>
       </c>
     </row>
@@ -7958,11 +7958,11 @@
         <v>3.8800000000000001E-2</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="1"/>
+        <f>-((B49-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>0.86082630320699205</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="2"/>
+        <f>(B49/B$43)</f>
         <v>1.2108978020233112</v>
       </c>
     </row>
@@ -7977,11 +7977,11 @@
         <v>4.5319999999999999E-2</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="1"/>
+        <f>-((B50-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>0.42147835874888107</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="2"/>
+        <f>(B50/B$43)</f>
         <v>1.8766666789360535</v>
       </c>
     </row>
@@ -7996,11 +7996,11 @@
         <v>4.3020000000000003E-2</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="1"/>
+        <f>-((B51-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>-1</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="2"/>
+        <f>(B51/B$43)</f>
         <v>4.0307135167499082</v>
       </c>
     </row>
